--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.292895000000001</v>
+        <v>0.2022703333333333</v>
       </c>
       <c r="H2">
-        <v>21.878685</v>
+        <v>0.606811</v>
       </c>
       <c r="I2">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="J2">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.338276</v>
+        <v>0.7893693333333335</v>
       </c>
       <c r="N2">
-        <v>40.01482799999999</v>
+        <v>2.368108</v>
       </c>
       <c r="O2">
-        <v>0.80809692568033</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="P2">
-        <v>0.8080969256803301</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="Q2">
-        <v>97.27464634902</v>
+        <v>0.1596659981764445</v>
       </c>
       <c r="R2">
-        <v>875.4718171411799</v>
+        <v>1.436993983588</v>
       </c>
       <c r="S2">
-        <v>0.2073381572699321</v>
+        <v>0.002150645451323356</v>
       </c>
       <c r="T2">
-        <v>0.2073381572699321</v>
+        <v>0.002150645451323355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.292895000000001</v>
+        <v>0.2022703333333333</v>
       </c>
       <c r="H3">
-        <v>21.878685</v>
+        <v>0.606811</v>
       </c>
       <c r="I3">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="J3">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.885514000000001</v>
       </c>
       <c r="O3">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="P3">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="Q3">
-        <v>21.60037354101</v>
+        <v>0.5990919595393334</v>
       </c>
       <c r="R3">
-        <v>194.40336186909</v>
+        <v>5.391827635854</v>
       </c>
       <c r="S3">
-        <v>0.04604058523395836</v>
+        <v>0.008069560284737856</v>
       </c>
       <c r="T3">
-        <v>0.04604058523395837</v>
+        <v>0.008069560284737855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.292895000000001</v>
+        <v>0.2022703333333333</v>
       </c>
       <c r="H4">
-        <v>21.878685</v>
+        <v>0.606811</v>
       </c>
       <c r="I4">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="J4">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2056733333333334</v>
+        <v>0.5387946666666666</v>
       </c>
       <c r="N4">
-        <v>0.6170200000000001</v>
+        <v>1.616384</v>
       </c>
       <c r="O4">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="P4">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="Q4">
-        <v>1.4999540243</v>
+        <v>0.1089821768248889</v>
       </c>
       <c r="R4">
-        <v>13.4995862187</v>
+        <v>0.9808395914239999</v>
       </c>
       <c r="S4">
-        <v>0.003197109576447349</v>
+        <v>0.00146795200944883</v>
       </c>
       <c r="T4">
-        <v>0.00319710957644735</v>
+        <v>0.00146795200944883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>43.394288</v>
       </c>
       <c r="I5">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="J5">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.338276</v>
+        <v>0.7893693333333335</v>
       </c>
       <c r="N5">
-        <v>40.01482799999999</v>
+        <v>2.368108</v>
       </c>
       <c r="O5">
-        <v>0.80809692568033</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="P5">
-        <v>0.8080969256803301</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="Q5">
-        <v>192.934996722496</v>
+        <v>11.41804006301156</v>
       </c>
       <c r="R5">
-        <v>1736.414970502464</v>
+        <v>102.762360567104</v>
       </c>
       <c r="S5">
-        <v>0.4112354883285136</v>
+        <v>0.1537970275763223</v>
       </c>
       <c r="T5">
-        <v>0.4112354883285136</v>
+        <v>0.1537970275763223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>43.394288</v>
       </c>
       <c r="I6">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="J6">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.885514000000001</v>
       </c>
       <c r="O6">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="P6">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="Q6">
         <v>42.84228372711467</v>
@@ -818,10 +818,10 @@
         <v>385.5805535440321</v>
       </c>
       <c r="S6">
-        <v>0.09131711596610748</v>
+        <v>0.5770706579631493</v>
       </c>
       <c r="T6">
-        <v>0.09131711596610749</v>
+        <v>0.5770706579631493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>43.394288</v>
       </c>
       <c r="I7">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="J7">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2056733333333334</v>
+        <v>0.5387946666666666</v>
       </c>
       <c r="N7">
-        <v>0.6170200000000001</v>
+        <v>1.616384</v>
       </c>
       <c r="O7">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="P7">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="Q7">
-        <v>2.97501595352889</v>
+        <v>7.793536979399111</v>
       </c>
       <c r="R7">
-        <v>26.77514358176001</v>
+        <v>70.14183281459199</v>
       </c>
       <c r="S7">
-        <v>0.006341162356325998</v>
+        <v>0.1049762319209791</v>
       </c>
       <c r="T7">
-        <v>0.006341162356325999</v>
+        <v>0.1049762319209791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.666276</v>
+        <v>2.638545666666667</v>
       </c>
       <c r="H8">
-        <v>19.998828</v>
+        <v>7.915637</v>
       </c>
       <c r="I8">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="J8">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.338276</v>
+        <v>0.7893693333333335</v>
       </c>
       <c r="N8">
-        <v>40.01482799999999</v>
+        <v>2.368108</v>
       </c>
       <c r="O8">
-        <v>0.80809692568033</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="P8">
-        <v>0.8080969256803301</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="Q8">
-        <v>88.91662918017599</v>
+        <v>2.082787033866223</v>
       </c>
       <c r="R8">
-        <v>800.2496626215839</v>
+        <v>18.745083304796</v>
       </c>
       <c r="S8">
-        <v>0.1895232800818843</v>
+        <v>0.02805441679266997</v>
       </c>
       <c r="T8">
-        <v>0.1895232800818843</v>
+        <v>0.02805441679266997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.666276</v>
+        <v>2.638545666666667</v>
       </c>
       <c r="H9">
-        <v>19.998828</v>
+        <v>7.915637</v>
       </c>
       <c r="I9">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="J9">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.885514000000001</v>
       </c>
       <c r="O9">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="P9">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="Q9">
-        <v>19.744429575288</v>
+        <v>7.814944820268668</v>
       </c>
       <c r="R9">
-        <v>177.699866177592</v>
+        <v>70.33450338241801</v>
       </c>
       <c r="S9">
-        <v>0.04208469316658076</v>
+        <v>0.1052645880901986</v>
       </c>
       <c r="T9">
-        <v>0.04208469316658076</v>
+        <v>0.1052645880901986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.666276</v>
+        <v>2.638545666666667</v>
       </c>
       <c r="H10">
-        <v>19.998828</v>
+        <v>7.915637</v>
       </c>
       <c r="I10">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="J10">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2056733333333334</v>
+        <v>0.5387946666666666</v>
       </c>
       <c r="N10">
-        <v>0.6170200000000001</v>
+        <v>1.616384</v>
       </c>
       <c r="O10">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="P10">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="Q10">
-        <v>1.37107520584</v>
+        <v>1.421634332956444</v>
       </c>
       <c r="R10">
-        <v>12.33967685256</v>
+        <v>12.794708996608</v>
       </c>
       <c r="S10">
-        <v>0.00292240802025</v>
+        <v>0.01914891991117088</v>
       </c>
       <c r="T10">
-        <v>0.002922408020250001</v>
+        <v>0.01914891991117088</v>
       </c>
     </row>
   </sheetData>
